--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander 2011 Launch Party (PCMD).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander 2011 Launch Party (PCMD).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,217 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Basandra, Battle Seraph</t>
+          <t>('Basandra, Battle Seraph', ['{3}{R}{W}', 'Legendary Creature — Angel', 'Flying', 'Players can’t cast spells during combat.', '{R}: Target creature attacks this turn if able.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{R}{W}</t>
+          <t>('Edric, Spymaster of Trest', ['{1}{G}{U}', 'Legendary Creature — Elf Rogue', 'Whenever a creature deals combat damage to one of your opponents, its controller may draw a card.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legendary Creature — Angel</t>
+          <t>('Nin, the Pain Artist', ['{U}{R}', 'Legendary Creature — Vedalken Wizard', '{X}{U}{R}, {T}: Nin, the Pain Artist deals X damage to target creature. That creature’s controller draws X cards.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Skullbriar, the Walking Grave', ['{B}{G}', 'Legendary Creature — Zombie Elemental', 'Haste', 'Whenever Skullbriar, the Walking Grave deals combat damage to a player, put a +1/+1 counter on it.', 'Counters remain on Skullbriar as it moves to any zone other than a player’s hand or library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Players can’t cast spells during combat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{R}: Target creature attacks this turn if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Edric, Spymaster of Trest</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{1}{G}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Elf Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Whenever a creature deals combat damage to one of your opponents, its controller may draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Nin, the Pain Artist</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Vedalken Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{X}{U}{R}, {T}: Nin, the Pain Artist deals X damage to target creature. That creature’s controller draws X cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Skullbriar, the Walking Grave</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Zombie Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Whenever Skullbriar, the Walking Grave deals combat damage to a player, put a +1/+1 counter on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Counters remain on Skullbriar as it moves to any zone other than a player’s hand or library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Vish Kal, Blood Arbiter</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{4}{W}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Flying, lifelink</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sacrifice a creature: Put X +1/+1 counters on Vish Kal, Blood Arbiter, where X is the sacrificed creature’s power.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Remove all +1/+1 counters from Vish Kal: Target creature gets -1/-1 until end of turn for each +1/+1 counter removed this way.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>5/5</t>
+          <t>('Vish Kal, Blood Arbiter', ['{4}{W}{B}{B}', 'Legendary Creature — Vampire', 'Flying, lifelink', 'Sacrifice a creature: Put X +1/+1 counters on Vish Kal, Blood Arbiter, where X is the sacrificed creature’s power.', 'Remove all +1/+1 counters from Vish Kal: Target creature gets -1/-1 until end of turn for each +1/+1 counter removed this way.', '5/5'])</t>
         </is>
       </c>
     </row>
